--- a/data/trans_orig/P78C8_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P78C8_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76DE7959-7CE0-4828-8B7A-43CB73766C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87AB5F82-7F3A-477F-B747-2711A28702D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A7F8128B-12FE-4617-B78F-5062F5FBE3AC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BA68CF8D-9FCB-465D-B190-0E9CFE81A360}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="19">
   <si>
     <t>Población según si tiene resuelto el retraso en los pagos de colegios en 2023 (Tasa respuesta: 0,03%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -74,13 +74,10 @@
     <t>—%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -507,8 +504,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8653125B-C699-49CC-99E4-0F5277A089E1}">
-  <dimension ref="A1:Q16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555C3ED4-418C-4A2E-A007-164E125B15B8}">
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -914,30 +911,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2897</v>
+      </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="N10" s="7">
+        <v>2897</v>
+      </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -959,35 +960,39 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2897</v>
+      </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2897</v>
+      </c>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1009,31 +1014,31 @@
         <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>3764</v>
+        <v>2897</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>3764</v>
+        <v>2897</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1058,144 +1063,43 @@
         <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>3764</v>
+        <v>2897</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="7">
+        <v>3</v>
+      </c>
+      <c r="N13" s="7">
+        <v>2897</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" s="7">
-        <v>3</v>
-      </c>
-      <c r="N13" s="7">
-        <v>3764</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3764</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" s="7">
-        <v>3</v>
-      </c>
-      <c r="N14" s="7">
-        <v>3764</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="7">
-        <v>3</v>
-      </c>
-      <c r="I15" s="7">
-        <v>3764</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" s="7">
-        <v>3</v>
-      </c>
-      <c r="N15" s="7">
-        <v>3764</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
